--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/fall-2019-selenium-project/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE10BFE-033D-3540-8DDA-2F697D0A05C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE20C7-33F5-2544-8362-79D81FF8355D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{91ED3504-8F9D-994C-9701-E99A78B95D4B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Country</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Kazahstan</t>
   </si>
   <si>
-    <t>Astana</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Eritrea</t>
   </si>
   <si>
-    <t>Asmera</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -200,6 +191,21 @@
   </si>
   <si>
     <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Nursultan</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -554,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="400" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -575,12 +581,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -589,12 +595,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -603,259 +609,259 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -879,15 +885,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>37435191</v>
@@ -895,7 +901,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>29399141</v>
@@ -903,7 +909,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>26317104</v>
@@ -911,7 +917,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>21846507</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>21671908</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>20484965</v>
@@ -935,7 +941,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>20283552</v>
@@ -943,7 +949,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>20185064</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>20035455</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>19222665</v>

--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/fall-2019-selenium-project/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE20C7-33F5-2544-8362-79D81FF8355D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0457DF-5D73-A544-BE4A-0C311AEC1A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{91ED3504-8F9D-994C-9701-E99A78B95D4B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Country</t>
   </si>
@@ -151,9 +151,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -193,19 +190,37 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
+    <t>Nursultan</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Nur-Sultan</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Nursultan</t>
-  </si>
-  <si>
-    <t>Asmara</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t/>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Chișinău</t>
+  </si>
+  <si>
+    <t>Algiers</t>
   </si>
 </sst>
 </file>
@@ -558,19 +573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="400" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -581,10 +597,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -595,12 +614,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -609,10 +631,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -620,15 +645,18 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -637,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -648,15 +676,15 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -665,12 +693,12 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -679,12 +707,15 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -693,12 +724,12 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -707,12 +738,12 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -721,26 +752,26 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -749,12 +780,12 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -763,12 +794,15 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -777,91 +811,97 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
